--- a/biology/Zoologie/Benzoate_d'émamectine/Benzoate_d'émamectine.xlsx
+++ b/biology/Zoologie/Benzoate_d'émamectine/Benzoate_d'émamectine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Benzoate_d%27%C3%A9mamectine</t>
+          <t>Benzoate_d'émamectine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le benzoate d'émamectine est un composé organique utilisé comme insecticide systémique. C'est un sel issu de la réaction de l'acide benzoïque avec l'émamectine, molécule dérivée de l'abamectine.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Benzoate_d%27%C3%A9mamectine</t>
+          <t>Benzoate_d'émamectine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Propriétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le benzoate d'émamectine existe sous différentes formes hydratées ou anhydres ayant différentes morphologies cristallines.
-« Benzoate d'émamectine » est le nom commun du benzoate de (4"R)-4"-désoxy-4"-(méthylamino)avermectine B1 (Mab1), qui est un mélange de benzoate de (4"R)-4"-désoxy-4"-(méthylamino)avermectine B1a (MAB1a ou benzoate d'émamectine B1a) et de benzoate de (4"R)-4"désoxy-4"-(méthylamino)avermectine B1b (MAB1b ou benzoate d'émamectine B1b)[3].
+« Benzoate d'émamectine » est le nom commun du benzoate de (4"R)-4"-désoxy-4"-(méthylamino)avermectine B1 (Mab1), qui est un mélange de benzoate de (4"R)-4"-désoxy-4"-(méthylamino)avermectine B1a (MAB1a ou benzoate d'émamectine B1a) et de benzoate de (4"R)-4"désoxy-4"-(méthylamino)avermectine B1b (MAB1b ou benzoate d'émamectine B1b).
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Benzoate_d%27%C3%A9mamectine</t>
+          <t>Benzoate_d'émamectine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, l'utilisation d'insecticides à base de benzoate d'émamectine est autorisée dans la lutte contre le charançon rouge des palmiers (Rhynchophorus ferrugineus) par injection dans le stipe par arrêté du 21 juillet 2010[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'utilisation d'insecticides à base de benzoate d'émamectine est autorisée dans la lutte contre le charançon rouge des palmiers (Rhynchophorus ferrugineus) par injection dans le stipe par arrêté du 21 juillet 2010.
 </t>
         </is>
       </c>
